--- a/Sequence Models for Time Series and Natural Language Processing/LSTM Flowmap.xlsx
+++ b/Sequence Models for Time Series and Natural Language Processing/LSTM Flowmap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine Learning Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine_Learning_Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23244B02-9C6A-4719-9D36-CF635EEDC968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E39A08-DB2C-403B-A089-3C740E16FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{F8047672-BA8A-402A-B874-53D00D10BD1E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
   <si>
     <t>xt</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Decoder</t>
+  </si>
+  <si>
+    <t>Update  Gate Output (u) (Sigmoid)</t>
   </si>
 </sst>
 </file>
@@ -276,6 +279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -320,10 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,7 +866,7 @@
   <dimension ref="A2:S21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K3"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,27 +878,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -905,50 +908,50 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -958,47 +961,47 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -1008,47 +1011,47 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="14" t="s">
+      <c r="E11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1058,47 +1061,47 @@
         <v>5</v>
       </c>
       <c r="C12" s="3">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -1108,64 +1111,64 @@
         <v>5</v>
       </c>
       <c r="C15" s="3">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="1">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="14" t="s">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -1175,9 +1178,9 @@
         <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1185,9 +1188,9 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
-      </c>
-      <c r="H18" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H18" s="16"/>
       <c r="I18" s="1">
         <v>1</v>
       </c>
@@ -1195,9 +1198,9 @@
         <v>5</v>
       </c>
       <c r="K18" s="3">
-        <v>10</v>
-      </c>
-      <c r="L18" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="L18" s="22"/>
       <c r="M18" s="1">
         <v>1</v>
       </c>
@@ -1205,9 +1208,9 @@
         <v>5</v>
       </c>
       <c r="O18" s="3">
-        <v>10</v>
-      </c>
-      <c r="P18" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="16"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
@@ -1215,35 +1218,35 @@
         <v>5</v>
       </c>
       <c r="S18" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="M20" s="10" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="M20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -1253,9 +1256,9 @@
         <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="1">
         <v>1</v>
       </c>
@@ -1263,9 +1266,9 @@
         <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
-      </c>
-      <c r="H21" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H21" s="16"/>
       <c r="I21" s="1">
         <v>1</v>
       </c>
@@ -1273,13 +1276,13 @@
         <v>5</v>
       </c>
       <c r="K21" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
       </c>
       <c r="N21" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1337,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:V18"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,27 +1349,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1376,9 +1379,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -1386,9 +1389,9 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H3" s="16"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1413,26 +1416,26 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="14" t="s">
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1443,16 +1446,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="8">
         <v>1</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -1478,26 +1481,26 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1508,16 +1511,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="8">
         <v>1</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -1543,35 +1546,35 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="21" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14" t="s">
+      <c r="I11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1581,9 +1584,9 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="8">
         <v>1</v>
       </c>
@@ -1591,9 +1594,9 @@
         <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="24"/>
       <c r="I12" s="1">
         <v>1</v>
       </c>
@@ -1601,9 +1604,9 @@
         <v>5</v>
       </c>
       <c r="K12" s="1">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="L12" s="16"/>
       <c r="M12" s="3">
         <v>1</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="O12" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1632,26 +1635,26 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="14" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="14" t="s">
+      <c r="E14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
@@ -1666,16 +1669,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D15" s="16"/>
       <c r="E15" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="8">
         <v>1</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
@@ -1709,47 +1712,47 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="14" t="s">
+      <c r="E17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="21" t="s">
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="14" t="s">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="U17" s="10" t="s">
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="U17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="10"/>
+      <c r="V17" s="12"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -1759,9 +1762,9 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1769,9 +1772,9 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
-      </c>
-      <c r="H18" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H18" s="16"/>
       <c r="I18" s="8">
         <v>1</v>
       </c>
@@ -1779,9 +1782,9 @@
         <v>5</v>
       </c>
       <c r="K18" s="1">
-        <v>10</v>
-      </c>
-      <c r="L18" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="L18" s="24"/>
       <c r="M18" s="8">
         <v>1</v>
       </c>
@@ -1789,9 +1792,9 @@
         <v>5</v>
       </c>
       <c r="O18" s="1">
-        <v>10</v>
-      </c>
-      <c r="P18" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="16"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
@@ -1799,13 +1802,13 @@
         <v>5</v>
       </c>
       <c r="S18" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C582D986-A713-43E3-98B9-6BA7176A6DAD}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1906,32 +1909,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1941,9 +1944,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -1951,40 +1954,40 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="14" t="s">
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1995,16 +1998,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="8">
         <v>1</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -2030,26 +2033,26 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2060,16 +2063,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>13</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="8">
         <v>1</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -2095,35 +2098,35 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14" t="s">
+      <c r="I13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -2133,9 +2136,9 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="8">
         <v>1</v>
       </c>
@@ -2143,9 +2146,9 @@
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="H14" s="24"/>
       <c r="I14" s="1">
         <v>1</v>
       </c>
@@ -2153,9 +2156,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="1">
-        <v>10</v>
-      </c>
-      <c r="L14" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="L14" s="16"/>
       <c r="M14" s="3">
         <v>1</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2184,26 +2187,26 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="14" t="s">
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
@@ -2218,16 +2221,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>13</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="16"/>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="8">
         <v>1</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="6"/>
@@ -2261,47 +2264,47 @@
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="21" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="14" t="s">
+      <c r="E19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="21" t="s">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="14" t="s">
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="U19" s="10" t="s">
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="U19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="10"/>
+      <c r="V19" s="12"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
@@ -2311,9 +2314,9 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
@@ -2321,9 +2324,9 @@
         <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
-      </c>
-      <c r="H20" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H20" s="16"/>
       <c r="I20" s="8">
         <v>1</v>
       </c>
@@ -2331,9 +2334,9 @@
         <v>5</v>
       </c>
       <c r="K20" s="1">
-        <v>10</v>
-      </c>
-      <c r="L20" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="L20" s="24"/>
       <c r="M20" s="8">
         <v>1</v>
       </c>
@@ -2341,9 +2344,9 @@
         <v>5</v>
       </c>
       <c r="O20" s="1">
-        <v>10</v>
-      </c>
-      <c r="P20" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="16"/>
       <c r="Q20" s="1">
         <v>1</v>
       </c>
@@ -2351,42 +2354,42 @@
         <v>5</v>
       </c>
       <c r="S20" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U20" s="1">
         <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="23" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="14" t="s">
+      <c r="E24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -2396,9 +2399,9 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
@@ -2406,40 +2409,40 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="14" t="s">
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -2449,47 +2452,47 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>13</v>
-      </c>
-      <c r="D28" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D28" s="16"/>
       <c r="E28" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
+        <v>8</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="14" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -2499,16 +2502,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>13</v>
-      </c>
-      <c r="D31" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D31" s="16"/>
       <c r="E31" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>10</v>
-      </c>
-      <c r="G31" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="16"/>
       <c r="H31" s="8">
         <v>1</v>
       </c>
@@ -2516,39 +2519,39 @@
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="23" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="21" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="14" t="s">
+      <c r="I33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -2558,9 +2561,9 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="8">
         <v>1</v>
       </c>
@@ -2568,50 +2571,50 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
+        <v>8</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>8</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
-        <v>10</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="3">
-        <v>1</v>
-      </c>
-      <c r="N34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="14" t="s">
+      <c r="E36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -2621,16 +2624,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>13</v>
-      </c>
-      <c r="D37" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D37" s="16"/>
       <c r="E37" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>10</v>
-      </c>
-      <c r="G37" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G37" s="16"/>
       <c r="H37" s="8">
         <v>1</v>
       </c>
@@ -2638,52 +2641,52 @@
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="R38" s="26"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="21" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="14" t="s">
+      <c r="E39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="21" t="s">
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="14" t="s">
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
@@ -2693,9 +2696,9 @@
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="D40" s="24"/>
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -2703,9 +2706,9 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>10</v>
-      </c>
-      <c r="H40" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H40" s="16"/>
       <c r="I40" s="8">
         <v>1</v>
       </c>
@@ -2713,9 +2716,9 @@
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>10</v>
-      </c>
-      <c r="L40" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="L40" s="24"/>
       <c r="M40" s="8">
         <v>1</v>
       </c>
@@ -2723,9 +2726,9 @@
         <v>1</v>
       </c>
       <c r="O40" s="1">
-        <v>10</v>
-      </c>
-      <c r="P40" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="P40" s="16"/>
       <c r="Q40" s="1">
         <v>1</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -2757,16 +2760,16 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:K33"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="H24:H25"/>
@@ -2794,16 +2797,16 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:G4"/>

--- a/Sequence Models for Time Series and Natural Language Processing/LSTM Flowmap.xlsx
+++ b/Sequence Models for Time Series and Natural Language Processing/LSTM Flowmap.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine_Learning_Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E39A08-DB2C-403B-A089-3C740E16FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4442C4E-FFD9-4DE8-BF36-54BF595F3E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{F8047672-BA8A-402A-B874-53D00D10BD1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F8047672-BA8A-402A-B874-53D00D10BD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="LSTM" sheetId="3" r:id="rId1"/>
     <sheet name="GRU" sheetId="2" r:id="rId2"/>
     <sheet name="Sequence_Sequence" sheetId="4" r:id="rId3"/>
+    <sheet name="Text Modelling" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="49">
   <si>
     <t>xt</t>
   </si>
@@ -126,6 +127,54 @@
   </si>
   <si>
     <t>Update  Gate Output (u) (Sigmoid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Data through Text Line Dataset and Prepare Sentence, Label </t>
+  </si>
+  <si>
+    <t>Concatenate Data for all the Files</t>
+  </si>
+  <si>
+    <t>Tokenize the Sentences after standardizing through tf_text.UnicodeScriptTokenizer()</t>
+  </si>
+  <si>
+    <t>Do Caching and Prefetching of the Datasets</t>
+  </si>
+  <si>
+    <t>Create a Counter Vocab: collections.Counter([tok for toks in tokenized_ds.as_numpy_iterator() for tok in toks ])</t>
+  </si>
+  <si>
+    <t>Sort the Counter and slice to the extent of its vocab size. vocab[:VOCAB_SIZE]</t>
+  </si>
+  <si>
+    <t>Initialize an init: tf.lookup.KeyValueAnalyzer with the values from the vocab and the values as range</t>
+  </si>
+  <si>
+    <t>Initialize vocab_table: a tf.lookup.StaticVocabuloryTable and inialize the init and number of oov buckets</t>
+  </si>
+  <si>
+    <t>Create a Vectorized Dataset from standardizing, tokenizing and doing vocab_table.lookup operation</t>
+  </si>
+  <si>
+    <t>Split into Train, Test and Validation</t>
+  </si>
+  <si>
+    <t>Create Padded Batch for Train, Test and Validation</t>
+  </si>
+  <si>
+    <t>Train the Model</t>
+  </si>
+  <si>
+    <t>Get Predictions from Validated/Test Model</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>use TextVectorization to preprocess the data and place this preprocessing layer before the model to feed in raw datasets for prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -283,8 +332,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,9 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -310,6 +359,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -321,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,24 +915,24 @@
   <dimension ref="A2:S21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="Q17" sqref="Q17:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="24.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -891,16 +940,16 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -910,7 +959,7 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -920,7 +969,7 @@
       <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
@@ -931,20 +980,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="17" t="s">
@@ -953,7 +1002,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -963,14 +1012,14 @@
       <c r="C6" s="3">
         <v>18</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>18</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -981,29 +1030,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1013,14 +1062,14 @@
       <c r="C9" s="3">
         <v>18</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1">
         <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="1">
         <v>1</v>
       </c>
@@ -1031,29 +1080,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1063,14 +1112,14 @@
       <c r="C12" s="3">
         <v>18</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1">
         <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -1081,20 +1130,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -1103,7 +1152,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1113,14 +1162,14 @@
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1">
         <v>18</v>
       </c>
       <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="1">
         <v>1</v>
       </c>
@@ -1131,29 +1180,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="21" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="20" t="s">
@@ -1161,16 +1210,16 @@
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1180,7 +1229,7 @@
       <c r="C18" s="3">
         <v>8</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1190,7 +1239,7 @@
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="1">
         <v>1</v>
       </c>
@@ -1200,7 +1249,7 @@
       <c r="K18" s="3">
         <v>8</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="1">
         <v>1</v>
       </c>
@@ -1210,7 +1259,7 @@
       <c r="O18" s="3">
         <v>8</v>
       </c>
-      <c r="P18" s="16"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
@@ -1221,21 +1270,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="16" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="17" t="s">
@@ -1243,12 +1292,12 @@
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1258,7 +1307,7 @@
       <c r="C21" s="3">
         <v>8</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1">
         <v>1</v>
       </c>
@@ -1268,7 +1317,7 @@
       <c r="G21" s="1">
         <v>8</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="1">
         <v>1</v>
       </c>
@@ -1287,31 +1336,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:S17"/>
@@ -1321,12 +1351,31 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1337,24 +1386,24 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="22" max="22" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="22" max="22" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -1362,16 +1411,16 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1381,7 +1430,7 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -1391,7 +1440,7 @@
       <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
@@ -1402,7 +1451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1415,20 +1464,20 @@
       <c r="J4" s="4"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="26" t="s">
@@ -1438,7 +1487,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1448,14 +1497,14 @@
       <c r="C6" s="3">
         <v>18</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="2">
         <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8">
         <v>1</v>
       </c>
@@ -1467,7 +1516,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1480,30 +1529,30 @@
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1513,14 +1562,14 @@
       <c r="C9" s="3">
         <v>18</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2">
         <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="8">
         <v>1</v>
       </c>
@@ -1528,11 +1577,11 @@
         <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1545,13 +1594,13 @@
       <c r="J10" s="4"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1559,7 +1608,7 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -1567,7 +1616,7 @@
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="20" t="s">
@@ -1576,7 +1625,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1586,7 +1635,7 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="8">
         <v>1</v>
       </c>
@@ -1596,7 +1645,7 @@
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="1">
         <v>1</v>
       </c>
@@ -1606,7 +1655,7 @@
       <c r="K12" s="1">
         <v>8</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="3">
         <v>1</v>
       </c>
@@ -1617,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1634,20 +1683,20 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -1661,7 +1710,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1671,14 +1720,14 @@
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2">
         <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="8">
         <v>1</v>
       </c>
@@ -1694,7 +1743,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1711,13 +1760,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="23" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -1725,7 +1774,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="26" t="s">
@@ -1733,7 +1782,7 @@
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="20" t="s">
@@ -1741,7 +1790,7 @@
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="20" t="s">
@@ -1749,12 +1798,12 @@
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="V17" s="21"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -1764,7 +1813,7 @@
       <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1774,7 +1823,7 @@
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="8">
         <v>1</v>
       </c>
@@ -1784,7 +1833,7 @@
       <c r="K18" s="1">
         <v>8</v>
       </c>
-      <c r="L18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="8">
         <v>1</v>
       </c>
@@ -1794,7 +1843,7 @@
       <c r="O18" s="1">
         <v>8</v>
       </c>
-      <c r="P18" s="16"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
@@ -1811,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1824,7 +1873,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1837,7 +1886,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1852,21 +1901,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:D15"/>
@@ -1879,16 +1923,21 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1898,28 +1947,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C582D986-A713-43E3-98B9-6BA7176A6DAD}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39:S39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1927,16 +1976,16 @@
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1946,7 +1995,7 @@
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -1956,7 +2005,7 @@
       <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="1">
         <v>1</v>
       </c>
@@ -1967,20 +2016,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="26" t="s">
@@ -1990,7 +2039,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2000,14 +2049,14 @@
       <c r="C8" s="3">
         <v>18</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="2">
         <v>8</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8">
         <v>1</v>
       </c>
@@ -2019,7 +2068,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2032,20 +2081,20 @@
       <c r="J9" s="4"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
@@ -2055,7 +2104,7 @@
       <c r="J10" s="26"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2065,14 +2114,14 @@
       <c r="C11" s="3">
         <v>18</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2">
         <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="8">
         <v>1</v>
       </c>
@@ -2084,7 +2133,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2097,13 +2146,13 @@
       <c r="J12" s="4"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -2111,7 +2160,7 @@
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="17" t="s">
@@ -2119,7 +2168,7 @@
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="20" t="s">
@@ -2128,7 +2177,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2138,7 +2187,7 @@
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="8">
         <v>1</v>
       </c>
@@ -2148,7 +2197,7 @@
       <c r="G14" s="1">
         <v>8</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="1">
         <v>1</v>
       </c>
@@ -2158,7 +2207,7 @@
       <c r="K14" s="1">
         <v>8</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="3">
         <v>1</v>
       </c>
@@ -2169,7 +2218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2186,20 +2235,20 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="20" t="s">
@@ -2213,7 +2262,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2223,14 +2272,14 @@
       <c r="C17" s="3">
         <v>18</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2">
         <v>18</v>
       </c>
       <c r="F17" s="2">
         <v>8</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="8">
         <v>1</v>
       </c>
@@ -2246,7 +2295,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2263,13 +2312,13 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="23" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -2277,7 +2326,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="26" t="s">
@@ -2285,7 +2334,7 @@
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="20" t="s">
@@ -2293,7 +2342,7 @@
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="Q19" s="20" t="s">
@@ -2301,12 +2350,12 @@
       </c>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="V19" s="21"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>1</v>
       </c>
@@ -2316,7 +2365,7 @@
       <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
@@ -2326,7 +2375,7 @@
       <c r="G20" s="1">
         <v>8</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="8">
         <v>1</v>
       </c>
@@ -2336,7 +2385,7 @@
       <c r="K20" s="1">
         <v>8</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="8">
         <v>1</v>
       </c>
@@ -2346,7 +2395,7 @@
       <c r="O20" s="1">
         <v>8</v>
       </c>
-      <c r="P20" s="16"/>
+      <c r="P20" s="13"/>
       <c r="Q20" s="1">
         <v>1</v>
       </c>
@@ -2363,18 +2412,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -2382,16 +2431,16 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2401,7 +2450,7 @@
       <c r="C25" s="1">
         <v>10</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
@@ -2411,7 +2460,7 @@
       <c r="G25" s="1">
         <v>8</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="1">
         <v>1</v>
       </c>
@@ -2422,20 +2471,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="16" t="s">
+      <c r="E27" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="26" t="s">
@@ -2444,7 +2493,7 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2454,14 +2503,14 @@
       <c r="C28" s="1">
         <v>18</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2">
         <v>18</v>
       </c>
       <c r="F28" s="2">
         <v>8</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="8">
         <v>1</v>
       </c>
@@ -2472,20 +2521,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="26" t="s">
@@ -2494,7 +2543,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2504,14 +2553,14 @@
       <c r="C31" s="3">
         <v>18</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="2">
         <v>18</v>
       </c>
       <c r="F31" s="2">
         <v>8</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="8">
         <v>1</v>
       </c>
@@ -2522,13 +2571,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="25" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -2536,7 +2585,7 @@
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="17" t="s">
@@ -2544,7 +2593,7 @@
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="13" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="20" t="s">
@@ -2553,7 +2602,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2563,7 +2612,7 @@
       <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="8">
         <v>1</v>
       </c>
@@ -2573,7 +2622,7 @@
       <c r="G34" s="1">
         <v>8</v>
       </c>
-      <c r="H34" s="24"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="1">
         <v>1</v>
       </c>
@@ -2583,7 +2632,7 @@
       <c r="K34" s="1">
         <v>8</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="3">
         <v>1</v>
       </c>
@@ -2594,20 +2643,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="16" t="s">
+      <c r="E36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="20" t="s">
@@ -2616,7 +2665,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -2626,14 +2675,14 @@
       <c r="C37" s="3">
         <v>18</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="2">
         <v>18</v>
       </c>
       <c r="F37" s="2">
         <v>8</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="8">
         <v>1</v>
       </c>
@@ -2644,16 +2693,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="23" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -2661,7 +2710,7 @@
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="26" t="s">
@@ -2669,7 +2718,7 @@
       </c>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M39" s="20" t="s">
@@ -2677,7 +2726,7 @@
       </c>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="16" t="s">
+      <c r="P39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="Q39" s="20" t="s">
@@ -2685,10 +2734,10 @@
       </c>
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>1</v>
       </c>
@@ -2698,7 +2747,7 @@
       <c r="C40" s="2">
         <v>8</v>
       </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -2708,7 +2757,7 @@
       <c r="G40" s="1">
         <v>8</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="8">
         <v>1</v>
       </c>
@@ -2718,7 +2767,7 @@
       <c r="K40" s="1">
         <v>8</v>
       </c>
-      <c r="L40" s="24"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="8">
         <v>1</v>
       </c>
@@ -2728,7 +2777,7 @@
       <c r="O40" s="1">
         <v>8</v>
       </c>
-      <c r="P40" s="16"/>
+      <c r="P40" s="13"/>
       <c r="Q40" s="1">
         <v>1</v>
       </c>
@@ -2743,40 +2792,33 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q19:S19"/>
@@ -2790,36 +2832,171 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:L40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45220453-C252-4EB6-862E-A68467F8C4C2}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>